--- a/Data/03_Arbeid og næringsliv/2020-tall/Arbeidsledighet NAV okt 2022.xlsx
+++ b/Data/03_Arbeid og næringsliv/2020-tall/Arbeidsledighet NAV okt 2022.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtfk-my.sharepoint.com/personal/erling_kielland_servoll_vtfk_no/Documents/GitHub/Telemark/Data/03_Arbeid og næringsliv/2020-tall/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erl1004\OneDrive - Vestfold og Telemark fylkeskommune\GitHub\Telemark\Data\03_Arbeid og næringsliv\2020-tall\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF76274B-DD97-46AF-98FD-76ADFB51CB0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A68F67-1C3E-474B-8F95-2A5B2A18E8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{66BDA01B-DBFD-40FB-8054-80896674D95F}"/>
+    <workbookView xWindow="24300" yWindow="1305" windowWidth="27510" windowHeight="19095" activeTab="2" xr2:uid="{66BDA01B-DBFD-40FB-8054-80896674D95F}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeidsledighet NAV okt 2022" sheetId="2" r:id="rId1"/>
-    <sheet name="Ark1" sheetId="1" r:id="rId2"/>
+    <sheet name="beregnign" sheetId="1" r:id="rId2"/>
+    <sheet name="jan-feb 2023" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="EksterneData_1" localSheetId="0" hidden="1">'Arbeidsledighet NAV okt 2022'!$A$1:$F$27</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="149">
   <si>
     <t>Column1</t>
   </si>
@@ -471,13 +472,37 @@
   </si>
   <si>
     <t>Endring i prosent</t>
+  </si>
+  <si>
+    <t>Vestfold og Telemark</t>
+  </si>
+  <si>
+    <t>Januar</t>
+  </si>
+  <si>
+    <t>Februar</t>
+  </si>
+  <si>
+    <t>I alt Vestfold og Telemark</t>
+  </si>
+  <si>
+    <t>Gjennomsnitt jan-feb</t>
+  </si>
+  <si>
+    <t>Viz Telemark</t>
+  </si>
+  <si>
+    <t>Viz Vestfold</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="173" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -559,6 +584,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="9">
@@ -692,7 +722,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -707,12 +737,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="15">
     <cellStyle name="Beregning" xfId="10" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Dårlig" xfId="6" builtinId="27" customBuiltin="1"/>
     <cellStyle name="God" xfId="5" builtinId="26" customBuiltin="1"/>
@@ -720,6 +755,7 @@
     <cellStyle name="Koblet celle" xfId="11" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Merknad" xfId="13" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normal 2" xfId="14" xr:uid="{E5CE3C9F-16B3-4DBF-BC32-A0B1C898A343}"/>
     <cellStyle name="Nøytral" xfId="7" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Overskrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Overskrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1007,23 +1043,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AACB2D0-0D15-43E8-A446-09936BB92BC9}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F27"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.09765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1043,7 +1082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1063,7 +1102,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,7 +1122,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1103,7 +1142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1123,7 +1162,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1143,7 +1182,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1163,7 +1202,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -1183,7 +1222,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -1203,7 +1242,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
@@ -1223,7 +1262,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
@@ -1243,7 +1282,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>61</v>
       </c>
@@ -1263,7 +1302,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
@@ -1283,7 +1322,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>71</v>
       </c>
@@ -1303,7 +1342,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>77</v>
       </c>
@@ -1323,7 +1362,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>83</v>
       </c>
@@ -1343,7 +1382,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>87</v>
       </c>
@@ -1363,7 +1402,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>92</v>
       </c>
@@ -1383,7 +1422,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>96</v>
       </c>
@@ -1403,7 +1442,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>100</v>
       </c>
@@ -1423,7 +1462,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>105</v>
       </c>
@@ -1443,7 +1482,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>110</v>
       </c>
@@ -1463,7 +1502,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>116</v>
       </c>
@@ -1483,7 +1522,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>122</v>
       </c>
@@ -1503,7 +1542,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>126</v>
       </c>
@@ -1523,7 +1562,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>129</v>
       </c>
@@ -1543,7 +1582,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>134</v>
       </c>
@@ -1573,20 +1612,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E8A1BD-755E-4D82-A080-FBD44A89DCA9}">
-  <sheetPr codeName="Ark1"/>
+  <sheetPr codeName="Ark1">
+    <tabColor theme="3" tint="0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.296875" customWidth="1"/>
-    <col min="3" max="4" width="18.09765625" customWidth="1"/>
+    <col min="1" max="1" width="14.25" customWidth="1"/>
+    <col min="3" max="4" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>138</v>
       </c>
@@ -1597,7 +1638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1617,7 +1658,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1637,7 +1678,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1657,7 +1698,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1677,7 +1718,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1697,7 +1738,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1717,7 +1758,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -1737,7 +1778,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1757,7 +1798,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -1777,7 +1818,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>61</v>
       </c>
@@ -1797,7 +1838,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>65</v>
       </c>
@@ -1817,7 +1858,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -1837,7 +1878,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -1857,7 +1898,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>83</v>
       </c>
@@ -1877,7 +1918,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>87</v>
       </c>
@@ -1897,7 +1938,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>92</v>
       </c>
@@ -1917,7 +1958,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>96</v>
       </c>
@@ -1937,7 +1978,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>100</v>
       </c>
@@ -1957,7 +1998,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>105</v>
       </c>
@@ -1977,7 +2018,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>110</v>
       </c>
@@ -1997,7 +2038,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -2017,7 +2058,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>122</v>
       </c>
@@ -2037,7 +2078,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>126</v>
       </c>
@@ -2057,7 +2098,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>129</v>
       </c>
@@ -2077,7 +2118,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>134</v>
       </c>
@@ -2101,6 +2142,634 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE70A69-624D-42BF-8C1F-9A182C8F84D5}">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3">
+        <v>2.5</v>
+      </c>
+      <c r="D3">
+        <v>2.5</v>
+      </c>
+      <c r="E3" s="2">
+        <f>AVERAGE(C3:D3)</f>
+        <v>2.5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="2">
+        <f>VLOOKUP(I3,$B$4:$E$26,4,FALSE)</f>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3801</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2.9</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" ref="E4:E26" si="0">AVERAGE(C4:D4)</f>
+        <v>2.95</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" ref="J4:J8" si="1">VLOOKUP(I4,$B$4:$E$26,4,FALSE)</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3802</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5">
+        <v>2.4</v>
+      </c>
+      <c r="D5">
+        <v>2.4</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3803</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>2.5</v>
+      </c>
+      <c r="D6">
+        <v>2.5</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="2">
+        <f>VLOOKUP(I6,$B$4:$E$26,4,FALSE)</f>
+        <v>2.3499999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3804</v>
+      </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7">
+        <v>2.6</v>
+      </c>
+      <c r="D7">
+        <v>2.4</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3805</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8">
+        <v>2.4</v>
+      </c>
+      <c r="D8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>2.3499999999999996</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="1"/>
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3806</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>2.6</v>
+      </c>
+      <c r="D9">
+        <v>2.7</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6500000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>3807</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10">
+        <v>2.8</v>
+      </c>
+      <c r="D10">
+        <v>2.8</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3808</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D11">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>2.25</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3811</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12">
+        <v>2.8</v>
+      </c>
+      <c r="D12">
+        <v>2.7</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" s="2">
+        <f>VLOOKUP(I12,$B$4:$E$26,4,FALSE)</f>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3812</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13">
+        <v>1.7</v>
+      </c>
+      <c r="D13">
+        <v>1.5</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" ref="J13:J28" si="2">VLOOKUP(I13,$B$4:$E$26,4,FALSE)</f>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3813</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14">
+        <v>2.6</v>
+      </c>
+      <c r="D14">
+        <v>2.6</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3814</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.95000000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3815</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16">
+        <v>1.6</v>
+      </c>
+      <c r="D16">
+        <v>1.5</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>1.55</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>3816</v>
+      </c>
+      <c r="B17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17">
+        <v>2.1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="2"/>
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3817</v>
+      </c>
+      <c r="B18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18">
+        <v>2.4</v>
+      </c>
+      <c r="D18">
+        <v>2.6</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="2"/>
+        <v>1.4500000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3818</v>
+      </c>
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19">
+        <v>1.6</v>
+      </c>
+      <c r="D19">
+        <v>1.3</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>3819</v>
+      </c>
+      <c r="B20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C20">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D20">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3820</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21">
+        <v>1.4</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>3821</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D22">
+        <v>0.8</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="2"/>
+        <v>1.2999999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3822</v>
+      </c>
+      <c r="B23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="2"/>
+        <v>2.6500000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3823</v>
+      </c>
+      <c r="B24" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" t="s">
+        <v>124</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="I24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="2"/>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3824</v>
+      </c>
+      <c r="B25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25">
+        <v>1.2</v>
+      </c>
+      <c r="D25">
+        <v>1.2</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3825</v>
+      </c>
+      <c r="B26" t="s">
+        <v>135</v>
+      </c>
+      <c r="C26">
+        <v>1.4</v>
+      </c>
+      <c r="D26">
+        <v>1.2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>1.2999999999999998</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="2"/>
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="2"/>
+        <v>2.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
